--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Producción de Microalgas</t>
+          <t>Centro Social de Economía Circular Forestal Agrícola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Margarita Del Rosario Sepúlveda Reyes</t>
+          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/12/2021</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
+          <t>Producción de Microalgas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FORESTAL FORESOL SPA</t>
+          <t>Margarita Del Rosario Sepúlveda Reyes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/05/2021</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,30 +520,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>FORESTAL FORESOL SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>325000</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>14/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabrero</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wind 3 SpA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>156000</v>
+        <v>325000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Colonia</t>
+          <t>Parque Eólico Cabrero</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Wind 3 SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>156000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
+          <t>Parque Fotovoltaico La Colonia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Solar Cabrero</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lateral Charrúa 2</t>
+          <t>Parque Solar Cabrero</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2300</v>
+        <v>15500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/08/2019</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Quinta</t>
+          <t>Lateral Charrúa 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sol del Sur 9 SpA</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
+          <t>Parque Fotovoltaico La Quinta</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad Cabrero Solar SpA</t>
+          <t>Sol del Sur 9 SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Moya</t>
+          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SUVAN SOLAR SPA</t>
+          <t>Sociedad Cabrero Solar SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cortijo</t>
+          <t>Parque Fotovoltaico Moya</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>APOLO SOLAR SPA</t>
+          <t>SUVAN SOLAR SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico El Cortijo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>APOLO SOLAR SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1500</v>
+        <v>9903</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>24/01/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>1900</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,30 +1576,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación Central Térmica Los Guindos</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Central de Ciclo Combinado Tierra Noble</t>
+          <t>Ampliación Central Térmica Los Guindos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Global Power Generation Chile SpA</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/05/2016</t>
+          <t>05/07/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,40 +1672,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Subestación Nueva Charrúanull</t>
+          <t>Central de Ciclo Combinado Tierra Noble</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Global Power Generation Chile SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>70000</v>
+        <v>400000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>26/05/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Subestación Nueva Charrúanull</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>70000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>600</v>
+        <v>6750</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/02/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
+          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,30 +2056,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>140400</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,40 +2104,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>140400</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/08/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Central Bioenergía Cabrero</t>
+          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Terra Cabrero S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>50000</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>21/08/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Bioenergía Cabrero</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Terra Cabrero S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>180</v>
+        <v>2475</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/03/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/01/2013</t>
+          <t>12/03/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16/01/2013</t>
+          <t>29/01/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,21 +2699,21 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/01/2013</t>
+          <t>16/01/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Pintado en Masisa Cabrero</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>10/01/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Planta de Pintado en Masisa Cabrero</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>706</v>
+        <v>7500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10700</v>
+        <v>706</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Alphomeg de Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Alphomeg de Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,21 +3467,21 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>35400</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
+          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2600</v>
+        <v>35400</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/03/2011</t>
+          <t>12/04/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Concesión Autopista Concepción - Cabrero</t>
+          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>330000</v>
+        <v>2600</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>18/03/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sellado y Abandono Vertedero, La Mancha</t>
+          <t>Concesión Autopista Concepción - Cabrero</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>330000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Sellado y Abandono Vertedero, La Mancha</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>55000</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>55000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>950</v>
+        <v>6500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1120</v>
+        <v>1750</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1500</v>
+        <v>1120</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,10 +5272,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -5283,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>42900</v>
+        <v>1500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,40 +5320,36 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1650</v>
+        <v>42900</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,15 +5379,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,30 +5566,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>43000</v>
+        <v>20</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>26/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
+          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Colbún Transmisión SA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1500</v>
+        <v>43000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>26/05/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,30 +5662,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,20 +5806,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>65000</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>12/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,20 +5902,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>429</v>
+        <v>65000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>12/12/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,20 +5950,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>6500</v>
+        <v>429</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>234</v>
+        <v>6500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,25 +6051,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,25 +6099,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Generadora Metropolitana SpA..</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>175000</v>
+        <v>10</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>28/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,20 +6190,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Sociedad Generadora Metropolitana SpA..</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>850</v>
+        <v>175000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>28/08/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,25 +6243,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,25 +6435,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,30 +6478,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ecoenergía S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>17/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,20 +6526,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ecoenergía S.A</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>17000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>17/04/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,21 +6583,21 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,20 +6670,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1352</v>
+        <v>80</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
+          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Recicladora Fibromasa Ltda.</t>
+          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Recicladora Fibromasa Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,17 +6827,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,25 +6867,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,25 +7011,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,40 +7092,40 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Vilorio</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>18/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,40 +7140,40 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Vilorio</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>18/10/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>64655</v>
+        <v>250</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,12 +7236,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7251,25 +7251,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7294,30 +7294,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>12/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,20 +7342,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/09/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7403,17 +7403,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,25 +7443,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,40 +7476,40 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>175000</v>
+        <v>22</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>31/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,40 +7524,40 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>240</v>
+        <v>175000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>31/05/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,15 +7587,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,15 +7635,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10000</v>
+        <v>142</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,15 +7683,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,17 +7739,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,25 +7779,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,12 +7812,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,12 +7860,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4000</v>
+        <v>64655</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,12 +7966,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7979,17 +7979,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,20 +8014,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,30 +8062,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,20 +8110,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,11 +8163,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8176,12 +8176,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,15 +8259,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,20 +8302,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Masonite Chile S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>58000</v>
+        <v>160</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,20 +8350,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Masonite Chile S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8451,11 +8451,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,11 +8499,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,20 +8542,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Planta Remanufactura 2 (e-seia)</t>
+          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,15 +8595,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>20000</v>
+        <v>82000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>06/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Remanufactura 2 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,20 +8638,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/05/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,15 +8691,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1715</v>
+        <v>855</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>13/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,30 +8782,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>855</v>
+        <v>1715</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>13/04/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,30 +8830,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1700</v>
+        <v>855</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>28/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>24/03/2005</t>
+          <t>28/03/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,20 +8926,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>1720</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>24/03/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,20 +8974,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>14/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>24/01/2005</t>
+          <t>14/02/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,30 +9070,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/01/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,20 +9118,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>08/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/09/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,25 +9219,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,25 +9267,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,12 +9300,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>9200</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,17 +9371,17 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>20/02/2004</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2257</v>
+        <v>9200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>31/12/2003</t>
+          <t>20/02/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
+          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,25 +9459,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200000</v>
+        <v>2257</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>31/10/2003</t>
+          <t>31/12/2003</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
+          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>412000</v>
+        <v>200000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>22/10/2003</t>
+          <t>31/10/2003</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,30 +9540,30 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>412000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/10/2003</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pub - discotheque Cabrero (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9694,30 +9694,30 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Juan Manuel Rodriguez Bascuqan</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>15/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
+          <t>Pub - discotheque Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Juan Manuel Rodriguez Bascuqan</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>34722</v>
+        <v>2</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>15/11/2002</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9790,30 +9790,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>6590</v>
+        <v>34722</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Cabrero</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9886,30 +9886,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Rubén Mateo Villarroel Fuentealba</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>09/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,30 +9924,30 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Estación de Servicio YPF Cabrero</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Rubén Mateo Villarroel Fuentealba</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>26700</v>
+        <v>50</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>09/08/2001</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,30 +9972,30 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>8000</v>
+        <v>26700</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>27/09/2000</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Red de Transporte de Gas Natural a Cabrero</t>
+          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,15 +10035,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>12/05/2000</t>
+          <t>27/09/2000</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Red de Transporte de Gas Natural a Cabrero</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,20 +10078,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>110</v>
+        <v>2200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>12/05/2000</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ampliación Planta Fibramold</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,20 +10126,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Fibramold S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1290</v>
+        <v>110</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,12 +10164,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación Turbogrupos Charrúa</t>
+          <t>Ampliación Planta Fibramold</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10179,25 +10179,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Fibramold S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>40000</v>
+        <v>1290</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>25/06/1999</t>
+          <t>10/08/1999</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,12 +10212,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
+          <t>Modificación Turbogrupos Charrúa</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>17800</v>
+        <v>40000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>25/06/1999</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10270,20 +10270,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2500</v>
+        <v>17800</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,20 +10318,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>940</v>
+        <v>2500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>40000</v>
+        <v>940</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
+          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>95000</v>
+        <v>40000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
+          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4240</v>
+        <v>95000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>07/11/1997</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,12 +10500,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
+          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Terranova S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>55000</v>
+        <v>4240</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>30/04/1996</t>
+          <t>07/11/1997</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,20 +10558,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Terranova S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>850000</v>
+        <v>55000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>30/04/1996</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,43 +10596,91 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
           <t>Central Termoeléctrica Laja</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>AES GENER S.A</t>
         </is>
       </c>
-      <c r="F214" t="n">
+      <c r="F215" t="n">
         <v>21000</v>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>22/03/1994</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=998&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>Cabrero</t>
         </is>

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J215"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centro Social de Economía Circular Forestal Agrícola</t>
+          <t>Parque Fotovoltaico Solar Laja</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
+          <t>Impulso Solar NCI SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Producción de Microalgas</t>
+          <t>Centro Social de Economía Circular Forestal Agrícola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Margarita Del Rosario Sepúlveda Reyes</t>
+          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/12/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
+          <t>Producción de Microalgas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FORESTAL FORESOL SPA</t>
+          <t>Margarita Del Rosario Sepúlveda Reyes</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14/05/2021</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>FORESTAL FORESOL SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>325000</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>14/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabrero</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wind 3 SpA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>156000</v>
+        <v>325000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Colonia</t>
+          <t>Parque Eólico Cabrero</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Wind 3 SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>156000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
+          <t>Parque Fotovoltaico La Colonia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Solar Cabrero</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lateral Charrúa 2</t>
+          <t>Parque Solar Cabrero</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2300</v>
+        <v>15500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/08/2019</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Quinta</t>
+          <t>Lateral Charrúa 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sol del Sur 9 SpA</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
+          <t>Parque Fotovoltaico La Quinta</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Cabrero Solar SpA</t>
+          <t>Sol del Sur 9 SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Moya</t>
+          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SUVAN SOLAR SPA</t>
+          <t>Sociedad Cabrero Solar SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cortijo</t>
+          <t>Parque Fotovoltaico Moya</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>APOLO SOLAR SPA</t>
+          <t>SUVAN SOLAR SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico El Cortijo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>APOLO SOLAR SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1500</v>
+        <v>9903</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>24/01/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10000</v>
+        <v>1900</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,30 +1624,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación Central Térmica Los Guindos</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Central de Ciclo Combinado Tierra Noble</t>
+          <t>Ampliación Central Térmica Los Guindos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Global Power Generation Chile SpA</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/05/2016</t>
+          <t>05/07/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,40 +1720,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Subestación Nueva Charrúanull</t>
+          <t>Central de Ciclo Combinado Tierra Noble</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Global Power Generation Chile SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>70000</v>
+        <v>400000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>26/05/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Subestación Nueva Charrúanull</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>70000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>600</v>
+        <v>6750</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/02/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
+          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,30 +2104,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>140400</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2500</v>
+        <v>140400</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21/08/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Central Bioenergía Cabrero</t>
+          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Terra Cabrero S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50000</v>
+        <v>2500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>21/08/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Bioenergía Cabrero</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Terra Cabrero S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>180</v>
+        <v>2475</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/03/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/01/2013</t>
+          <t>12/03/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16/01/2013</t>
+          <t>29/01/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,21 +2747,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10/01/2013</t>
+          <t>16/01/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Pintado en Masisa Cabrero</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>10/01/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Planta de Pintado en Masisa Cabrero</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>706</v>
+        <v>7500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10700</v>
+        <v>706</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Alphomeg de Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Alphomeg de Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,21 +3515,21 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>35400</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
+          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2600</v>
+        <v>35400</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/03/2011</t>
+          <t>12/04/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Concesión Autopista Concepción - Cabrero</t>
+          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>330000</v>
+        <v>2600</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>18/03/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sellado y Abandono Vertedero, La Mancha</t>
+          <t>Concesión Autopista Concepción - Cabrero</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>330000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Sellado y Abandono Vertedero, La Mancha</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>55000</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>50</v>
+        <v>55000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>950</v>
+        <v>6500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1120</v>
+        <v>1750</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1500</v>
+        <v>1120</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,10 +5320,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -5331,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>42900</v>
+        <v>1500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,40 +5368,36 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1650</v>
+        <v>42900</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,17 +5483,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,30 +5614,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>43000</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
+          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Colbún Transmisión SA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1500</v>
+        <v>43000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>26/05/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,30 +5710,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,20 +5854,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>65000</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>12/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,20 +5950,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>429</v>
+        <v>65000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>12/12/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,20 +5998,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6500</v>
+        <v>429</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>234</v>
+        <v>6500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,25 +6099,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,25 +6147,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Generadora Metropolitana SpA..</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>175000</v>
+        <v>10</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>28/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,20 +6238,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Sociedad Generadora Metropolitana SpA..</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>850</v>
+        <v>175000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>28/08/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,25 +6483,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,30 +6526,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ecoenergía S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>17/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,20 +6574,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ecoenergía S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>17000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>17/04/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,21 +6631,21 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,20 +6718,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1352</v>
+        <v>80</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
+          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Recicladora Fibromasa Ltda.</t>
+          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,30 +6814,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Recicladora Fibromasa Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,17 +6875,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,25 +7011,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,25 +7107,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,40 +7140,40 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Vilorio</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>18/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,40 +7188,40 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Vilorio</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>18/10/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,12 +7236,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7251,15 +7251,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>64655</v>
+        <v>250</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,12 +7284,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7299,25 +7299,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,30 +7342,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,20 +7390,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/09/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7451,17 +7451,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,40 +7524,40 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>175000</v>
+        <v>22</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>31/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,40 +7572,40 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>240</v>
+        <v>175000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>31/05/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,15 +7635,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,15 +7683,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>10000</v>
+        <v>142</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,12 +7860,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,12 +7908,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4000</v>
+        <v>64655</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,12 +8014,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8027,17 +8027,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,20 +8062,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,30 +8110,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,20 +8158,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,11 +8211,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,15 +8259,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,15 +8307,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,20 +8350,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Masonite Chile S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>58000</v>
+        <v>160</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,20 +8398,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Masonite Chile S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8499,11 +8499,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,11 +8547,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Planta Remanufactura 2 (e-seia)</t>
+          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>20000</v>
+        <v>82000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>06/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Remanufactura 2 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/05/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,20 +8782,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1715</v>
+        <v>855</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>13/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,30 +8830,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>855</v>
+        <v>1715</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>13/04/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,30 +8878,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1700</v>
+        <v>855</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>28/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,25 +8931,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>24/03/2005</t>
+          <t>28/03/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,20 +8974,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>1720</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>24/03/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,20 +9022,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>14/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>24/01/2005</t>
+          <t>14/02/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,30 +9118,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/01/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>08/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/09/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,25 +9267,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,25 +9315,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>9200</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,17 +9419,17 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>20/02/2004</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2257</v>
+        <v>9200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>31/12/2003</t>
+          <t>20/02/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
+          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,25 +9507,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200000</v>
+        <v>2257</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>31/10/2003</t>
+          <t>31/12/2003</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
+          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>412000</v>
+        <v>200000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>22/10/2003</t>
+          <t>31/10/2003</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,30 +9588,30 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>412000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/10/2003</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pub - discotheque Cabrero (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9742,30 +9742,30 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Juan Manuel Rodriguez Bascuqan</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>15/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
+          <t>Pub - discotheque Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Juan Manuel Rodriguez Bascuqan</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>34722</v>
+        <v>2</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>15/11/2002</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9838,30 +9838,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>6590</v>
+        <v>34722</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Cabrero</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9934,30 +9934,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Rubén Mateo Villarroel Fuentealba</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,30 +9972,30 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Estación de Servicio YPF Cabrero</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Rubén Mateo Villarroel Fuentealba</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>26700</v>
+        <v>50</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>09/08/2001</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,30 +10020,30 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>8000</v>
+        <v>26700</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>27/09/2000</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Red de Transporte de Gas Natural a Cabrero</t>
+          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,15 +10083,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>12/05/2000</t>
+          <t>27/09/2000</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Red de Transporte de Gas Natural a Cabrero</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,20 +10126,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>110</v>
+        <v>2200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>12/05/2000</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ampliación Planta Fibramold</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,20 +10174,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Fibramold S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1290</v>
+        <v>110</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,12 +10212,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación Turbogrupos Charrúa</t>
+          <t>Ampliación Planta Fibramold</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Fibramold S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>40000</v>
+        <v>1290</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>25/06/1999</t>
+          <t>10/08/1999</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,12 +10260,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
+          <t>Modificación Turbogrupos Charrúa</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>17800</v>
+        <v>40000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>25/06/1999</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,20 +10318,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>2500</v>
+        <v>17800</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,20 +10366,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>940</v>
+        <v>2500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>40000</v>
+        <v>940</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
+          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>95000</v>
+        <v>40000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
+          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>4240</v>
+        <v>95000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>07/11/1997</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
+          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Terranova S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>55000</v>
+        <v>4240</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>30/04/1996</t>
+          <t>07/11/1997</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,20 +10606,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Terranova S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>850000</v>
+        <v>55000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>30/04/1996</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,43 +10644,91 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
           <t>Central Termoeléctrica Laja</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>AES GENER S.A</t>
         </is>
       </c>
-      <c r="F215" t="n">
+      <c r="F216" t="n">
         <v>21000</v>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>22/03/1994</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=998&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr">
+      <c r="J216" t="inlineStr">
         <is>
           <t>Cabrero</t>
         </is>

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -8691,7 +8691,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F174" t="n">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Solar Laja</t>
+          <t>Parque Eólico Dañicalqui</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Impulso Solar NCI SpA</t>
+          <t>Eolica Dañicalqui SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>15/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centro Social de Economía Circular Forestal Agrícola</t>
+          <t>Parque Fotovoltaico Solar Laja</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
+          <t>Impulso Solar NCI SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Producción de Microalgas</t>
+          <t>Centro Social de Economía Circular Forestal Agrícola</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Margarita Del Rosario Sepúlveda Reyes</t>
+          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/12/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
+          <t>Producción de Microalgas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FORESTAL FORESOL SPA</t>
+          <t>Margarita Del Rosario Sepúlveda Reyes</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14/05/2021</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>FORESTAL FORESOL SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>325000</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>14/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabrero</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wind 3 SpA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>156000</v>
+        <v>325000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Colonia</t>
+          <t>Parque Eólico Cabrero</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Wind 3 SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>156000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
+          <t>Parque Fotovoltaico La Colonia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Solar Cabrero</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lateral Charrúa 2</t>
+          <t>Parque Solar Cabrero</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2300</v>
+        <v>15500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/08/2019</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Quinta</t>
+          <t>Lateral Charrúa 2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sol del Sur 9 SpA</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
+          <t>Parque Fotovoltaico La Quinta</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Cabrero Solar SpA</t>
+          <t>Sol del Sur 9 SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Moya</t>
+          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SUVAN SOLAR SPA</t>
+          <t>Sociedad Cabrero Solar SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cortijo</t>
+          <t>Parque Fotovoltaico Moya</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>APOLO SOLAR SPA</t>
+          <t>SUVAN SOLAR SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico El Cortijo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>APOLO SOLAR SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1500</v>
+        <v>9903</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>24/01/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>1900</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,30 +1672,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación Central Térmica Los Guindos</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Central de Ciclo Combinado Tierra Noble</t>
+          <t>Ampliación Central Térmica Los Guindos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Global Power Generation Chile SpA</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/05/2016</t>
+          <t>05/07/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,40 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Subestación Nueva Charrúanull</t>
+          <t>Central de Ciclo Combinado Tierra Noble</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Global Power Generation Chile SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>70000</v>
+        <v>400000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>26/05/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Subestación Nueva Charrúanull</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>70000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>600</v>
+        <v>6750</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/02/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
+          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,30 +2152,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>140400</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,40 +2200,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2500</v>
+        <v>140400</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21/08/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Central Bioenergía Cabrero</t>
+          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Terra Cabrero S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50000</v>
+        <v>2500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>21/08/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Bioenergía Cabrero</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Terra Cabrero S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>180</v>
+        <v>2475</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/03/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/01/2013</t>
+          <t>12/03/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16/01/2013</t>
+          <t>29/01/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/01/2013</t>
+          <t>16/01/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta de Pintado en Masisa Cabrero</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>10/01/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Planta de Pintado en Masisa Cabrero</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>706</v>
+        <v>7500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10700</v>
+        <v>706</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alphomeg de Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Alphomeg de Chile S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,21 +3563,21 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>35400</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
+          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2600</v>
+        <v>35400</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18/03/2011</t>
+          <t>12/04/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Concesión Autopista Concepción - Cabrero</t>
+          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>330000</v>
+        <v>2600</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>18/03/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sellado y Abandono Vertedero, La Mancha</t>
+          <t>Concesión Autopista Concepción - Cabrero</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>330000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Sellado y Abandono Vertedero, La Mancha</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>55000</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>50</v>
+        <v>55000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>950</v>
+        <v>6500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1120</v>
+        <v>1750</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1500</v>
+        <v>1120</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,10 +5368,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -5379,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>42900</v>
+        <v>1500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,40 +5416,36 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1650</v>
+        <v>42900</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,17 +5531,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,30 +5662,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>43000</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
+          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1500</v>
+        <v>43000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>26/05/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,30 +5758,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,20 +5902,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,15 +5955,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>65000</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,20 +5998,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>429</v>
+        <v>65000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>12/12/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,20 +6046,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6500</v>
+        <v>429</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>234</v>
+        <v>6500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,25 +6147,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,25 +6195,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sociedad Generadora Metropolitana SpA..</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>175000</v>
+        <v>10</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>28/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,20 +6286,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Sociedad Generadora Metropolitana SpA..</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>850</v>
+        <v>175000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>28/08/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,25 +6387,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,25 +6531,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,30 +6574,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ecoenergía S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>17/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,20 +6622,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ecoenergía S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>17000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>17/04/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,21 +6679,21 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,20 +6766,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1352</v>
+        <v>80</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
+          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,15 +6819,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Recicladora Fibromasa Ltda.</t>
+          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,30 +6862,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Recicladora Fibromasa Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,17 +6923,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,25 +7011,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,25 +7107,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,25 +7155,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,40 +7188,40 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Vilorio</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>18/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,40 +7236,40 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Vilorio</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>18/10/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,12 +7284,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7299,15 +7299,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>64655</v>
+        <v>250</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,12 +7332,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7347,25 +7347,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,30 +7390,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7438,20 +7438,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/09/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7499,17 +7499,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,25 +7539,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,40 +7572,40 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>175000</v>
+        <v>22</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>31/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,40 +7620,40 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>240</v>
+        <v>175000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>31/05/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,15 +7683,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>10000</v>
+        <v>142</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,15 +7779,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,17 +7835,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,12 +7908,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,12 +7956,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>4000</v>
+        <v>64655</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,12 +8062,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8075,17 +8075,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,20 +8110,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,30 +8158,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,20 +8206,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,11 +8259,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,15 +8307,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,15 +8355,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,20 +8398,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Masonite Chile S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>58000</v>
+        <v>160</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,20 +8446,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Masonite Chile S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,15 +8499,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8547,11 +8547,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,11 +8595,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,20 +8638,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Planta Remanufactura 2 (e-seia)</t>
+          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,15 +8691,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>20000</v>
+        <v>82000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>06/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Remanufactura 2 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/05/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1715</v>
+        <v>855</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,30 +8878,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>855</v>
+        <v>1715</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>13/04/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,30 +8926,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1700</v>
+        <v>855</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>28/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,25 +8979,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>24/03/2005</t>
+          <t>28/03/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,20 +9022,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>1720</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>24/03/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,20 +9070,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>14/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>24/01/2005</t>
+          <t>14/02/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,30 +9166,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/01/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>08/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,20 +9262,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/09/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,25 +9315,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,25 +9363,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,12 +9396,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>9200</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,17 +9467,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>20/02/2004</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,20 +9502,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2257</v>
+        <v>9200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>31/12/2003</t>
+          <t>20/02/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
+          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,25 +9555,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200000</v>
+        <v>2257</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>31/10/2003</t>
+          <t>31/12/2003</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
+          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>412000</v>
+        <v>200000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>22/10/2003</t>
+          <t>31/10/2003</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,30 +9636,30 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>412000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/10/2003</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pub - discotheque Cabrero (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9790,30 +9790,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Juan Manuel Rodriguez Bascuqan</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>15/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
+          <t>Pub - discotheque Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Juan Manuel Rodriguez Bascuqan</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>34722</v>
+        <v>2</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>15/11/2002</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9886,30 +9886,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>6590</v>
+        <v>34722</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Cabrero</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,30 +9982,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Rubén Mateo Villarroel Fuentealba</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,30 +10020,30 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Estación de Servicio YPF Cabrero</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Rubén Mateo Villarroel Fuentealba</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>26700</v>
+        <v>50</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>09/08/2001</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,30 +10068,30 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>8000</v>
+        <v>26700</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>27/09/2000</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Red de Transporte de Gas Natural a Cabrero</t>
+          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/05/2000</t>
+          <t>27/09/2000</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Red de Transporte de Gas Natural a Cabrero</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,20 +10174,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>110</v>
+        <v>2200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>12/05/2000</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación Planta Fibramold</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10222,20 +10222,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Fibramold S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1290</v>
+        <v>110</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,12 +10260,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación Turbogrupos Charrúa</t>
+          <t>Ampliación Planta Fibramold</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Fibramold S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>40000</v>
+        <v>1290</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>25/06/1999</t>
+          <t>10/08/1999</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,12 +10308,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
+          <t>Modificación Turbogrupos Charrúa</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>17800</v>
+        <v>40000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>25/06/1999</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,20 +10366,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2500</v>
+        <v>17800</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,20 +10414,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>940</v>
+        <v>2500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>40000</v>
+        <v>940</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
+          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>95000</v>
+        <v>40000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
+          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>4240</v>
+        <v>95000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>07/11/1997</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,12 +10596,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
+          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Terranova S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>55000</v>
+        <v>4240</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>30/04/1996</t>
+          <t>07/11/1997</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10654,20 +10654,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Terranova S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>850000</v>
+        <v>55000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>30/04/1996</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,43 +10692,91 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
           <t>Central Termoeléctrica Laja</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>AES GENER S.A</t>
         </is>
       </c>
-      <c r="F216" t="n">
+      <c r="F217" t="n">
         <v>21000</v>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>22/03/1994</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=998&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>Cabrero</t>
         </is>

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>23/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F203" t="n">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Dañicalqui</t>
+          <t>PROYECTO FOTOVOLTAICO DON DAVO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Eolica Dañicalqui SpA</t>
+          <t>JCS ENERGY SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/09/2022</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158879638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Solar Laja</t>
+          <t>Parque Eólico Dañicalqui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Impulso Solar NCI SpA</t>
+          <t>Eolica Dañicalqui SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>23/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centro Social de Economía Circular Forestal Agrícola</t>
+          <t>Parque Fotovoltaico Solar Laja</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
+          <t>Impulso Solar NCI SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Producción de Microalgas</t>
+          <t>Centro Social de Economía Circular Forestal Agrícola</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Margarita Del Rosario Sepúlveda Reyes</t>
+          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/12/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
+          <t>Producción de Microalgas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FORESTAL FORESOL SPA</t>
+          <t>Margarita Del Rosario Sepúlveda Reyes</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14/05/2021</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>FORESTAL FORESOL SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>325000</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>14/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,40 +712,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabrero</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wind 3 SpA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>156000</v>
+        <v>325000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Colonia</t>
+          <t>Parque Eólico Cabrero</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Wind 3 SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>156000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
+          <t>Parque Fotovoltaico La Colonia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Solar Cabrero</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lateral Charrúa 2</t>
+          <t>Parque Solar Cabrero</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2300</v>
+        <v>15500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/08/2019</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Quinta</t>
+          <t>Lateral Charrúa 2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sol del Sur 9 SpA</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
+          <t>Parque Fotovoltaico La Quinta</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Cabrero Solar SpA</t>
+          <t>Sol del Sur 9 SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Moya</t>
+          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SUVAN SOLAR SPA</t>
+          <t>Sociedad Cabrero Solar SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cortijo</t>
+          <t>Parque Fotovoltaico Moya</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>APOLO SOLAR SPA</t>
+          <t>SUVAN SOLAR SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico El Cortijo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>APOLO SOLAR SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1500</v>
+        <v>9903</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>24/01/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>1900</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,30 +1720,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación Central Térmica Los Guindos</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Central de Ciclo Combinado Tierra Noble</t>
+          <t>Ampliación Central Térmica Los Guindos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Global Power Generation Chile SpA</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/05/2016</t>
+          <t>05/07/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Subestación Nueva Charrúanull</t>
+          <t>Central de Ciclo Combinado Tierra Noble</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Global Power Generation Chile SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>70000</v>
+        <v>400000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>26/05/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Subestación Nueva Charrúanull</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>70000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>600</v>
+        <v>6750</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/02/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
+          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,30 +2200,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>140400</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,40 +2248,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2500</v>
+        <v>140400</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/08/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Central Bioenergía Cabrero</t>
+          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Terra Cabrero S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50000</v>
+        <v>2500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>21/08/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Bioenergía Cabrero</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Terra Cabrero S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>180</v>
+        <v>2475</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/03/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/01/2013</t>
+          <t>12/03/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/01/2013</t>
+          <t>29/01/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/01/2013</t>
+          <t>16/01/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Planta de Pintado en Masisa Cabrero</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>10/01/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Planta de Pintado en Masisa Cabrero</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>706</v>
+        <v>7500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10700</v>
+        <v>706</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Alphomeg de Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Alphomeg de Chile S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,21 +3611,21 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>35400</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
+          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2600</v>
+        <v>35400</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18/03/2011</t>
+          <t>12/04/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Concesión Autopista Concepción - Cabrero</t>
+          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>330000</v>
+        <v>2600</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>18/03/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sellado y Abandono Vertedero, La Mancha</t>
+          <t>Concesión Autopista Concepción - Cabrero</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>330000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Sellado y Abandono Vertedero, La Mancha</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>55000</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>50</v>
+        <v>55000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>950</v>
+        <v>6500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1120</v>
+        <v>1750</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1500</v>
+        <v>1120</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,10 +5416,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -5427,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>42900</v>
+        <v>1500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,40 +5464,36 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1650</v>
+        <v>42900</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,17 +5579,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,15 +5667,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,30 +5710,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>43000</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>26/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
+          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1500</v>
+        <v>43000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>26/05/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,20 +5950,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>65000</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>12/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,20 +6046,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>429</v>
+        <v>65000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>12/12/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,20 +6094,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>6500</v>
+        <v>429</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>234</v>
+        <v>6500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,25 +6195,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,25 +6243,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,30 +6286,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sociedad Generadora Metropolitana SpA..</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>175000</v>
+        <v>10</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>28/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,20 +6334,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Sociedad Generadora Metropolitana SpA..</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>850</v>
+        <v>175000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>28/08/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,25 +6387,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,25 +6435,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,30 +6622,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Ecoenergía S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>17/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,20 +6670,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ecoenergía S.A</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>17000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>17/04/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,21 +6727,21 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,20 +6814,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1352</v>
+        <v>80</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
+          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Recicladora Fibromasa Ltda.</t>
+          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,30 +6910,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Recicladora Fibromasa Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,17 +6971,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,25 +7011,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,25 +7107,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,25 +7155,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,25 +7203,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,40 +7236,40 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Vilorio</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>18/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,40 +7284,40 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Vilorio</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>18/10/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,12 +7332,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7347,15 +7347,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>64655</v>
+        <v>250</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,12 +7380,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7395,25 +7395,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7438,30 +7438,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7486,20 +7486,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/09/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -7547,17 +7547,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,25 +7587,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,40 +7620,40 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>175000</v>
+        <v>22</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>31/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,40 +7668,40 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>240</v>
+        <v>175000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>31/05/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,15 +7779,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10000</v>
+        <v>142</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,15 +7827,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,17 +7883,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,12 +7956,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>4000</v>
+        <v>64655</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,12 +8110,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8123,17 +8123,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,20 +8158,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,30 +8206,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,20 +8254,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,11 +8307,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,15 +8355,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,20 +8446,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Masonite Chile S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>58000</v>
+        <v>160</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,20 +8494,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Masonite Chile S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,15 +8547,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8595,11 +8595,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,11 +8643,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Planta Remanufactura 2 (e-seia)</t>
+          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>20000</v>
+        <v>82000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>06/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Remanufactura 2 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,20 +8782,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/05/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,20 +8878,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1715</v>
+        <v>855</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,30 +8926,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>855</v>
+        <v>1715</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>13/04/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,30 +8974,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1700</v>
+        <v>855</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>28/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,25 +9027,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>24/03/2005</t>
+          <t>28/03/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,20 +9070,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>1720</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>24/03/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,20 +9118,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>14/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>24/01/2005</t>
+          <t>14/02/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,30 +9214,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/01/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,20 +9262,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>08/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,20 +9310,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/09/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,25 +9363,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,25 +9411,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,12 +9444,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>9200</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,17 +9515,17 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>20/02/2004</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,20 +9550,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2257</v>
+        <v>9200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>31/12/2003</t>
+          <t>20/02/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
+          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,25 +9603,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200000</v>
+        <v>2257</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>31/10/2003</t>
+          <t>31/12/2003</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
+          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>412000</v>
+        <v>200000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>22/10/2003</t>
+          <t>31/10/2003</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,30 +9684,30 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>412000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/10/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pub - discotheque Cabrero (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9838,30 +9838,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Juan Manuel Rodriguez Bascuqan</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>15/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
+          <t>Pub - discotheque Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Juan Manuel Rodriguez Bascuqan</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>34722</v>
+        <v>2</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>15/11/2002</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9934,30 +9934,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>6590</v>
+        <v>34722</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Cabrero</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Rubén Mateo Villarroel Fuentealba</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,30 +10068,30 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Estación de Servicio YPF Cabrero</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Rubén Mateo Villarroel Fuentealba</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>26700</v>
+        <v>50</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>09/08/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,30 +10116,30 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>8000</v>
+        <v>26700</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>27/09/2000</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Red de Transporte de Gas Natural a Cabrero</t>
+          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>12/05/2000</t>
+          <t>27/09/2000</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Red de Transporte de Gas Natural a Cabrero</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10222,20 +10222,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>110</v>
+        <v>2200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>12/05/2000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación Planta Fibramold</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10270,20 +10270,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Fibramold S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1290</v>
+        <v>110</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,12 +10308,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Modificación Turbogrupos Charrúa</t>
+          <t>Ampliación Planta Fibramold</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Fibramold S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>40000</v>
+        <v>1290</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>25/06/1999</t>
+          <t>10/08/1999</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,12 +10356,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
+          <t>Modificación Turbogrupos Charrúa</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>17800</v>
+        <v>40000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>25/06/1999</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,20 +10414,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2500</v>
+        <v>17800</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,20 +10462,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>940</v>
+        <v>2500</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>40000</v>
+        <v>940</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
+          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>95000</v>
+        <v>40000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
+          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>4240</v>
+        <v>95000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>07/11/1997</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,12 +10644,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
+          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Terranova S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>55000</v>
+        <v>4240</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>30/04/1996</t>
+          <t>07/11/1997</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10702,20 +10702,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Terranova S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>850000</v>
+        <v>55000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>30/04/1996</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,43 +10740,91 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>Central Termoeléctrica Laja</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>AES GENER S.A</t>
         </is>
       </c>
-      <c r="F217" t="n">
+      <c r="F218" t="n">
         <v>21000</v>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>22/03/1994</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=998&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>Cabrero</t>
         </is>

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>19/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -6675,7 +6675,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ecoenergía S.A</t>
+          <t>Neomas SpA</t>
         </is>
       </c>
       <c r="F132" t="n">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO DON DAVO</t>
+          <t>Proyecto Fotovoltaico Don Davo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Don Davo</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>JCS ENERGY SPA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/04/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158879638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Dañicalqui</t>
+          <t>Proyecto Fotovoltaico Don Davo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Eolica Dañicalqui SpA</t>
+          <t>JCS ENERGY SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/09/2022</t>
+          <t>19/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158879638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Solar Laja</t>
+          <t>Parque Eólico Dañicalqui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Impulso Solar NCI SpA</t>
+          <t>Eolica Dañicalqui SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>23/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centro Social de Economía Circular Forestal Agrícola</t>
+          <t>Parque Fotovoltaico Solar Laja</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
+          <t>Impulso Solar NCI SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Producción de Microalgas</t>
+          <t>Centro Social de Economía Circular Forestal Agrícola</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Margarita Del Rosario Sepúlveda Reyes</t>
+          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/12/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
+          <t>Producción de Microalgas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FORESTAL FORESOL SPA</t>
+          <t>Margarita Del Rosario Sepúlveda Reyes</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14/05/2021</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,40 +712,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>FORESTAL FORESOL SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>325000</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>14/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,40 +760,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabrero</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wind 3 SpA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>156000</v>
+        <v>325000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Colonia</t>
+          <t>Parque Eólico Cabrero</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Wind 3 SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>156000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
+          <t>Parque Fotovoltaico La Colonia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Solar Cabrero</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lateral Charrúa 2</t>
+          <t>Parque Solar Cabrero</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2300</v>
+        <v>15500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/08/2019</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Quinta</t>
+          <t>Lateral Charrúa 2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sol del Sur 9 SpA</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
+          <t>Parque Fotovoltaico La Quinta</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Cabrero Solar SpA</t>
+          <t>Sol del Sur 9 SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Moya</t>
+          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SUVAN SOLAR SPA</t>
+          <t>Sociedad Cabrero Solar SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cortijo</t>
+          <t>Parque Fotovoltaico Moya</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>APOLO SOLAR SPA</t>
+          <t>SUVAN SOLAR SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico El Cortijo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>APOLO SOLAR SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1500</v>
+        <v>9903</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1691,11 +1691,11 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>24/01/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10000</v>
+        <v>1900</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,30 +1768,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación Central Térmica Los Guindos</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Central de Ciclo Combinado Tierra Noble</t>
+          <t>Ampliación Central Térmica Los Guindos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Global Power Generation Chile SpA</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/05/2016</t>
+          <t>05/07/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,40 +1864,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Subestación Nueva Charrúanull</t>
+          <t>Central de Ciclo Combinado Tierra Noble</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Global Power Generation Chile SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>70000</v>
+        <v>400000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>26/05/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Subestación Nueva Charrúanull</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>70000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>600</v>
+        <v>6750</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/02/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
+          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,30 +2248,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>140400</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,40 +2296,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2500</v>
+        <v>140400</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/08/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Central Bioenergía Cabrero</t>
+          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Terra Cabrero S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50000</v>
+        <v>2500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>21/08/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Bioenergía Cabrero</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Terra Cabrero S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>180</v>
+        <v>2475</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/03/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/01/2013</t>
+          <t>12/03/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16/01/2013</t>
+          <t>29/01/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,21 +2891,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/01/2013</t>
+          <t>16/01/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta de Pintado en Masisa Cabrero</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>10/01/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Planta de Pintado en Masisa Cabrero</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>706</v>
+        <v>7500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10700</v>
+        <v>706</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Alphomeg de Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Alphomeg de Chile S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,21 +3659,21 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>35400</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>12/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
+          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2600</v>
+        <v>35400</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18/03/2011</t>
+          <t>12/04/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Concesión Autopista Concepción - Cabrero</t>
+          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>330000</v>
+        <v>2600</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>18/03/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sellado y Abandono Vertedero, La Mancha</t>
+          <t>Concesión Autopista Concepción - Cabrero</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>330000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Sellado y Abandono Vertedero, La Mancha</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>55000</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>50</v>
+        <v>55000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>950</v>
+        <v>6500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1120</v>
+        <v>1750</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1500</v>
+        <v>1120</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,10 +5464,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -5475,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>42900</v>
+        <v>1500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,40 +5512,36 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1650</v>
+        <v>42900</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,17 +5627,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,15 +5667,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,30 +5758,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>43000</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
+          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1500</v>
+        <v>43000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>26/05/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,30 +5854,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,25 +5955,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,20 +5998,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>65000</v>
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>12/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,20 +6094,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>429</v>
+        <v>65000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>12/12/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,20 +6142,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6500</v>
+        <v>429</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>234</v>
+        <v>6500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,25 +6243,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,30 +6334,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Generadora Metropolitana SpA..</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>175000</v>
+        <v>10</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>28/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,20 +6382,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Sociedad Generadora Metropolitana SpA..</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>850</v>
+        <v>175000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>28/08/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,25 +6435,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,25 +6483,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Neomas SpA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>17/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,20 +6718,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Neomas SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>17000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>17/04/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,21 +6775,21 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,20 +6862,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1352</v>
+        <v>80</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
+          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Recicladora Fibromasa Ltda.</t>
+          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,30 +6958,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Recicladora Fibromasa Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,17 +7019,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,25 +7107,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,25 +7155,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,25 +7203,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,25 +7251,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,40 +7284,40 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Vilorio</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>18/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,40 +7332,40 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Vilorio</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>18/10/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,12 +7380,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7395,15 +7395,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>64655</v>
+        <v>250</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,12 +7428,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7443,25 +7443,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7486,30 +7486,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7534,20 +7534,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/09/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -7595,17 +7595,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,25 +7635,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,40 +7668,40 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>175000</v>
+        <v>22</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>31/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,40 +7716,40 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>240</v>
+        <v>175000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>31/05/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,15 +7779,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,15 +7827,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>10000</v>
+        <v>142</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,17 +7931,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4000</v>
+        <v>64655</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,25 +8115,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,12 +8158,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8171,17 +8171,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,20 +8206,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,30 +8254,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,20 +8302,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,11 +8355,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,20 +8494,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Masonite Chile S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>58000</v>
+        <v>160</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,20 +8542,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Masonite Chile S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,15 +8595,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8643,11 +8643,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,11 +8691,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Planta Remanufactura 2 (e-seia)</t>
+          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>20000</v>
+        <v>82000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>06/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Remanufactura 2 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/05/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,20 +8926,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1715</v>
+        <v>855</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>13/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,30 +8974,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>855</v>
+        <v>1715</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>13/04/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,30 +9022,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1700</v>
+        <v>855</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>28/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,25 +9075,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>24/03/2005</t>
+          <t>28/03/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,20 +9118,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>1720</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>24/03/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>14/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>24/01/2005</t>
+          <t>14/02/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,30 +9262,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/01/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,20 +9310,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>08/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/09/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,25 +9411,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,25 +9459,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,12 +9492,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>9200</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,17 +9563,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>20/02/2004</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9598,20 +9598,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2257</v>
+        <v>9200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>31/12/2003</t>
+          <t>20/02/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
+          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200000</v>
+        <v>2257</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>31/10/2003</t>
+          <t>31/12/2003</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
+          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>412000</v>
+        <v>200000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>22/10/2003</t>
+          <t>31/10/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,30 +9732,30 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>412000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/10/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pub - discotheque Cabrero (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9886,30 +9886,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Juan Manuel Rodriguez Bascuqan</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>15/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
+          <t>Pub - discotheque Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Juan Manuel Rodriguez Bascuqan</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>34722</v>
+        <v>2</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>15/11/2002</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,30 +9982,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>6590</v>
+        <v>34722</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,25 +10035,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Cabrero</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,30 +10078,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Rubén Mateo Villarroel Fuentealba</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>09/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,30 +10116,30 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Estación de Servicio YPF Cabrero</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Rubén Mateo Villarroel Fuentealba</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>26700</v>
+        <v>50</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>09/08/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,30 +10164,30 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>8000</v>
+        <v>26700</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>27/09/2000</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Red de Transporte de Gas Natural a Cabrero</t>
+          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>12/05/2000</t>
+          <t>27/09/2000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Red de Transporte de Gas Natural a Cabrero</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10270,20 +10270,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>110</v>
+        <v>2200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>12/05/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ampliación Planta Fibramold</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,20 +10318,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Fibramold S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1290</v>
+        <v>110</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,12 +10356,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Modificación Turbogrupos Charrúa</t>
+          <t>Ampliación Planta Fibramold</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Fibramold S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>40000</v>
+        <v>1290</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>25/06/1999</t>
+          <t>10/08/1999</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,12 +10404,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
+          <t>Modificación Turbogrupos Charrúa</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>17800</v>
+        <v>40000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>25/06/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,20 +10462,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2500</v>
+        <v>17800</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>940</v>
+        <v>2500</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>40000</v>
+        <v>940</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
+          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>95000</v>
+        <v>40000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
+          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>4240</v>
+        <v>95000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>07/11/1997</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,12 +10692,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
+          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Terranova S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>55000</v>
+        <v>4240</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>30/04/1996</t>
+          <t>07/11/1997</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10750,20 +10750,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Terranova S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>850000</v>
+        <v>55000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>30/04/1996</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,43 +10788,91 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>Central Termoeléctrica Laja</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>AES GENER S.A</t>
         </is>
       </c>
-      <c r="F218" t="n">
+      <c r="F219" t="n">
         <v>21000</v>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>22/03/1994</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=998&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>Cabrero</t>
         </is>

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F216" t="n">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
+          <t>Parque Fotovoltaico Monte Águila</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Transportes Bretti Limitada</t>
+          <t>GR PALI AIKE SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>264000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/11/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160765796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Don Davo</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>JCS ENERGY SPA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/04/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158879638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico Dañicalqui</t>
+          <t>Proyecto Fotovoltaico Don Davo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eolica Dañicalqui SpA</t>
+          <t>JCS ENERGY SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/09/2022</t>
+          <t>19/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158879638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Solar Laja</t>
+          <t>Parque Eólico Dañicalqui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Impulso Solar NCI SpA</t>
+          <t>Eolica Dañicalqui SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>23/09/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156638308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centro Social de Economía Circular Forestal Agrícola</t>
+          <t>Parque Fotovoltaico Solar Laja</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
+          <t>Impulso Solar NCI SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156506733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Producción de Microalgas</t>
+          <t>Centro Social de Economía Circular Forestal Agrícola</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Margarita Del Rosario Sepúlveda Reyes</t>
+          <t>INGENIERIA Y SERVICIOS INDUSTRIALES MAHEL CIA LTDA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/12/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155439989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
+          <t>Producción de Microalgas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FORESTAL FORESOL SPA</t>
+          <t>Margarita Del Rosario Sepúlveda Reyes</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14/05/2021</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151897418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,30 +760,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>PLANTA ASTILLADO DE MADERAS FORESOL, CABRERO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>FORESTAL FORESOL SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>325000</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>14/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151773371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,30 +808,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabrero</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wind 3 SpA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>156000</v>
+        <v>325000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Colonia</t>
+          <t>Parque Eólico Cabrero</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Wind 3 SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>156000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146944190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
+          <t>Parque Fotovoltaico La Colonia</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145998890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Sustitución del Sistema de Descarga de Efluentes de la Central Termoeléctrica Laja</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25000</v>
+        <v>60</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145685504&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Solar Cabrero</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lateral Charrúa 2</t>
+          <t>Parque Solar Cabrero</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>IMPULSO SOLAR EL RESPLANDOR SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2300</v>
+        <v>15500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2019</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145237905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Quinta</t>
+          <t>Lateral Charrúa 2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sol del Sur 9 SpA</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143970164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
+          <t>Parque Fotovoltaico La Quinta</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Cabrero Solar SpA</t>
+          <t>Sol del Sur 9 SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143015258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Moya</t>
+          <t>PARQUE FOTOVOLTAICO CABRERO SOLAR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SUVAN SOLAR SPA</t>
+          <t>Sociedad Cabrero Solar SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142499650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Cortijo</t>
+          <t>Parque Fotovoltaico Moya</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>APOLO SOLAR SPA</t>
+          <t>SUVAN SOLAR SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141360963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico El Cortijo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>APOLO SOLAR SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141357748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1500</v>
+        <v>9903</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/12/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Monte Águila</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2135203846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Galpón de Encalado de Lodos Cabrero</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1739,11 +1739,11 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/01/2017</t>
+          <t>24/01/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Galpón de Encalado de Lodos Cabrero</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10000</v>
+        <v>1900</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>17/01/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132020256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,30 +1816,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación Central Térmica Los Guindos</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Central de Ciclo Combinado Tierra Noble</t>
+          <t>Ampliación Central Térmica Los Guindos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Global Power Generation Chile SpA</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/05/2016</t>
+          <t>05/07/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131504783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,40 +1912,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Subestación Nueva Charrúanull</t>
+          <t>Central de Ciclo Combinado Tierra Noble</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Global Power Generation Chile SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>70000</v>
+        <v>400000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>26/05/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131420005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Subestación Nueva Charrúanull</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>70000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>600</v>
+        <v>6750</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Cabrero</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129336366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Mejoramiento de la Planta de Tratamiento de Aguas Servidas de la Localidad de Cabrero</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/02/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129277121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
+          <t>Aumento de la Capacidad de Producción de Molduras de MDF a 15.000 m3/mes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,30 +2296,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Manejo de Riles en Planta Maderas, MASISA Cabrero</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>140400</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,40 +2344,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Biodiversa S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2500</v>
+        <v>140400</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21/08/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Bioenergía Cabrero</t>
+          <t>Centro Integral de Tratamiento de Residuos Orgánicos Cabrero</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Terra Cabrero S.A.</t>
+          <t>Biodiversa S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50000</v>
+        <v>2500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>21/08/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128475680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Bioenergía Cabrero</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Terra Cabrero S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128407712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>180</v>
+        <v>2475</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/03/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>Modificación Sistema de Tratamiento de RILes, MASISA S.A. Planta Cabrero</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/01/2013</t>
+          <t>12/03/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16/01/2013</t>
+          <t>29/01/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7821157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO KM 4.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,21 +2939,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/01/2013</t>
+          <t>16/01/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7775428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Planta de Pintado en Masisa Cabrero</t>
+          <t>EXTRACCIÓN DE ÁRIDOS Y DISPOSICIÓN DE MATERIALES INERTES EN POZO LASTRERO, LAS PATAGUAS KM 13.000 RUTA O-50, COMUNA DE CABRERO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>10/01/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7747715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Planta de Pintado en Masisa Cabrero</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>706</v>
+        <v>7500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7251732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10700</v>
+        <v>706</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Segunda Línea de Producción de Tableros Melaminizados en Planta Masisa Cabrero</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6887573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Alphomeg de Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>CENTRO DE RECICLAJE Y VALORIZACIÓN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Alphomeg de Chile S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>319</v>
+        <v>1300</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,21 +3707,21 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>35400</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
+          <t>BANCO AUTOTRANSFORMADOR S/E CHARRÚA 500/220 KV, 750 MVA .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2600</v>
+        <v>35400</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/03/2011</t>
+          <t>12/04/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5510347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Concesión Autopista Concepción - Cabrero</t>
+          <t>Planta Integrada de Manejo de Residuos Sólidos Domiciliarios en la comuna de Cabrero</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>330000</v>
+        <v>2600</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>18/03/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5446062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sellado y Abandono Vertedero, La Mancha</t>
+          <t>Concesión Autopista Concepción - Cabrero</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Sociedad Concesionaria Valles del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>330000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4773740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Sellado y Abandono Vertedero, La Mancha</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>55000</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3978664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Reconversión de la Línea MDF1 a MDP, Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>55000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3955258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>950</v>
+        <v>6500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3670423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ecowood S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1120</v>
+        <v>1750</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+          <t>Planta Elaboradora de Madera Endurecida (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Ecowood S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1500</v>
+        <v>1120</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>02/09/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3150030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,10 +5512,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>Modificación Central Termoeléctrica Campanario para uso de Fuel Oil (e-seia)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Octava</t>
@@ -5523,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>42900</v>
+        <v>1500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3138675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,40 +5560,36 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Línea de Transmisión Eléctrica 2 x 220 kV Charrúa-Lagunillas y obras asociadas</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1650</v>
+        <v>42900</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3112571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>43000</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>26/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
+          <t>Línea de Alta Tensión Coronel-Charrúa 2x220 kV . (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1500</v>
+        <v>43000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>26/05/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2922884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Sellado, Abandono y Apertura Relleno Sanitario La Mancha (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,30 +5902,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,25 +5955,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,25 +6003,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,20 +6046,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
+          <t>Transportes de Residuos Peligrosos en la Octava Region (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,15 +6099,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Los Guindos Generación Spa</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>65000</v>
+        <v>20</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>12/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2629712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Turbina de Respaldo Los Guindos . (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,20 +6142,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Los Guindos Generación Spa</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>429</v>
+        <v>65000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>12/12/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,20 +6190,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6500</v>
+        <v>429</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>22/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>AUMENTO EN LA CAPACIDAD DE PRODUCCIÓN DE MOLDURAS TREFILADAS DE MDF (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>234</v>
+        <v>6500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>22/10/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,30 +6382,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Generadora Metropolitana SpA..</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>175000</v>
+        <v>10</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>28/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia en Charrúa . (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,20 +6430,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Sociedad Generadora Metropolitana SpA..</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>850</v>
+        <v>175000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>28/08/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2348893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,25 +6483,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,25 +6531,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,30 +6718,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Neomas SpA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>17/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Cogeneración de Energía con Biomasa Vegetal Cogeneración MASISA Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,20 +6766,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Neomas SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>17000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>17/04/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2108698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,21 +6823,21 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,25 +6867,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,20 +6910,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1352</v>
+        <v>80</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
+          <t>Modificación Línea Existente 66 Kv. Charrua-Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,15 +6963,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Recicladora Fibromasa Ltda.</t>
+          <t>EMPRESA ELECTRICA DE LA FRONTERA S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta de Astillado Cabrero - Fibromasa Ltda. Fibromasa Ltda., (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,30 +7006,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Recicladora Fibromasa Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1856551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,17 +7067,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,25 +7107,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,25 +7155,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,25 +7203,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,25 +7251,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,25 +7299,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,40 +7332,40 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Vilorio</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>18/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,40 +7380,40 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Vilorio</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>18/10/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1778573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,12 +7428,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>64655</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,12 +7476,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Línea de Transmisión Charrúa-Nueva Temuco 2 x 220 kV (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>64655</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1735487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7534,30 +7534,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabrero</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>PROYECTO PLAN REGULADOR DE CABRERO (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7582,20 +7582,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Ilustre Municipalidad de Cabrero</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/09/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1476964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7643,17 +7643,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,25 +7683,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,40 +7716,40 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Santa Lidia</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>175000</v>
+        <v>22</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>31/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,40 +7764,40 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Central Termoeléctrica Santa Lidia</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SOCIEDAD ELÉCTRICA SANTIAGO S.A. (ESSA)</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>240</v>
+        <v>175000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>31/05/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1621371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,15 +7827,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>10000</v>
+        <v>142</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Gasoducto del Pacífico Lateral Charrúa (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,15 +7923,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,17 +7979,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transchile Charrúa Transmisión S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>64655</v>
+        <v>4000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,12 +8100,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Línea de Transmisión Charrúa - Nueva Temuco 2 x 220 kV</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8115,25 +8115,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Transchile Charrúa Transmisión S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4000</v>
+        <v>64655</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1369328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,25 +8163,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,12 +8206,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8219,17 +8219,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA AmpliChar (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,20 +8254,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,30 +8302,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>AMPLIACIÓN BARRAS DE 220 KV DE LA S/E CHARRÚA Barcharru (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,20 +8350,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1288117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,11 +8403,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,15 +8499,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,20 +8542,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Masonite Chile S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>58000</v>
+        <v>160</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Ampliación de Planta de Tableros para la Fabricación de Puertas moldeadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Masonite Chile S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8691,11 +8691,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,11 +8739,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,20 +8782,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>82000</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>18/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Planta Remanufactura 2 (e-seia)</t>
+          <t>Nueva Línea de MDF en MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>20000</v>
+        <v>82000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>06/05/2005</t>
+          <t>18/07/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=930793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Remanufactura 2 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,20 +8878,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>06/05/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=676825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,20 +8974,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1715</v>
+        <v>855</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>13/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,30 +9022,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>855</v>
+        <v>1715</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>13/04/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=654816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,30 +9070,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1700</v>
+        <v>855</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>28/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
+          <t>Ampliación Línea Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,25 +9123,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>24/03/2005</t>
+          <t>28/03/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=626637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>1720</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>24/03/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=637670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>14/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>24/01/2005</t>
+          <t>14/02/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=599933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Nueva Línea de Molduras MASISA S.A., Planta Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,30 +9310,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>1700</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/01/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>08/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Modificación de Central Termoeléctrica Campanario para uso de Petroleo Diesel en casos de Emergencia (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/09/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,25 +9459,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,25 +9507,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>9200</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>05/03/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa-Chillán</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,17 +9611,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>20/02/2004</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
+          <t>Línea de Transmisión Eléctrica 1x220 kV S/E Charrúa - Chillán</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9646,20 +9646,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2257</v>
+        <v>9200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>31/12/2003</t>
+          <t>20/02/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
+          <t>Planta de Tratamiento de Disposición Final de Residuos Sólidos Cabrero</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
+          <t>Empresa de Servicios Mecanizados, Aseos y Roces Ltda.; SERVIMAR Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200000</v>
+        <v>2257</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>31/10/2003</t>
+          <t>31/12/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
+          <t>Central Termoeléctrica Ciclo Combinado Campanario</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Orazul Energy Chile Holding II BV Comandita por Acciones</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>412000</v>
+        <v>200000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>22/10/2003</t>
+          <t>31/10/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,30 +9780,30 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Desarrollo de Generación Eléctrica Los Pinos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200</v>
+        <v>412000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>22/10/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pub - discotheque Cabrero (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9934,30 +9934,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Juan Manuel Rodriguez Bascuqan</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>15/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
+          <t>Pub - discotheque Cabrero (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Juan Manuel Rodriguez Bascuqan</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>34722</v>
+        <v>2</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>15/11/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=34339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Ampliación de la S/E Charrúa y construcción de 1.000 m de la Línea de Transmisión Eléctrica 500 kV Charrúa - Ancoa 1 y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>6590</v>
+        <v>34722</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,25 +10083,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Cabrero</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,30 +10126,30 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Rubén Mateo Villarroel Fuentealba</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>09/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,30 +10164,30 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
+          <t>Estación de Servicio YPF Cabrero</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Rubén Mateo Villarroel Fuentealba</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>26700</v>
+        <v>50</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>09/08/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,30 +10212,30 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
+          <t>Línea de Transmisión Eléctrica El Piulo S/E Charrúa</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>8000</v>
+        <v>26700</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>27/09/2000</t>
+          <t>23/03/2001</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Red de Transporte de Gas Natural a Cabrero</t>
+          <t>Reacondicionamiento del Aserradero Antiguo Complejo Maderero ANDINOS S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>12/05/2000</t>
+          <t>27/09/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Red de Transporte de Gas Natural a Cabrero</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,20 +10318,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>110</v>
+        <v>2200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>12/05/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ampliación Planta Fibramold</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,20 +10366,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Fibramold S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1290</v>
+        <v>110</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>10/08/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,12 +10404,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación Turbogrupos Charrúa</t>
+          <t>Ampliación Planta Fibramold</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Fibramold S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>40000</v>
+        <v>1290</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>25/06/1999</t>
+          <t>10/08/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,12 +10452,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
+          <t>Modificación Turbogrupos Charrúa</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10467,25 +10467,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>MASISA S.A</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>17800</v>
+        <v>40000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>18/06/1999</t>
+          <t>25/06/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Modificación del Proceso Industrial Complejo Maderero Andinos</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MASISA S.A</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2500</v>
+        <v>17800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>18/06/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,20 +10558,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>940</v>
+        <v>2500</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Monte Aguila</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>40000</v>
+        <v>940</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>05/02/1999</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
+          <t>Modificación Nº2 Proyecto Turbogrupos en Subestación Charrúa</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>95000</v>
+        <v>40000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>05/02/1999</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
+          <t>Modificación de Proyecto Consistente en la Instalación de 4 Turbogrupos en la Subestación Charrúa</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4240</v>
+        <v>95000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>07/11/1997</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,12 +10740,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
+          <t>Modificación Línea Eléctrica Charrúa-Concepción de 154 Kv</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Terranova S.A.</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>55000</v>
+        <v>4240</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>30/04/1996</t>
+          <t>07/11/1997</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Planta de Puertas Moldeadas FIBRAMOLD Ltda.</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10798,20 +10798,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Terranova S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>850000</v>
+        <v>55000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>30/04/1996</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,43 +10836,91 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
           <t>Central Termoeléctrica Laja</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>AES GENER S.A</t>
         </is>
       </c>
-      <c r="F219" t="n">
+      <c r="F220" t="n">
         <v>21000</v>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>22/03/1994</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=998&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>Cabrero</t>
         </is>

--- a/data/Cabrero.xlsx
+++ b/data/Cabrero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
